--- a/vendor_payment_reference_test.xlsx
+++ b/vendor_payment_reference_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cogentholdings-my.sharepoint.com/personal/john_tan_sh-cogent_com_sg/Documents/Documents/Ivy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{F6840732-1724-4AF0-9FB3-462C17F71348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACF6A5DC-3ADB-4F47-A974-434AFD0BDCB3}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{F6840732-1724-4AF0-9FB3-462C17F71348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B22B0CC8-4302-457C-A4BF-731A4D738AF3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DB2F7A36-12EF-4749-AC20-E36A0554DF53}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>20240822</t>
   </si>
   <si>
-    <t>CR413367</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>EXI00442380</t>
+  </si>
+  <si>
+    <t>CR416232</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" sqref="A1:Q6"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,31 +665,31 @@
         <v>21</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="L2" s="6">
         <v>-2238.9699999999998</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N2" s="6">
         <v>-2238.9699999999998</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="4">
         <v>1500002338</v>
@@ -703,7 +703,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5">
         <v>45526</v>
@@ -718,31 +718,31 @@
         <v>21</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="L3" s="6">
         <v>-2951.18</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3" s="6">
         <v>-2951.18</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="4">
         <v>1500002338</v>
@@ -753,10 +753,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="D4" s="5">
         <v>45526</v>
@@ -771,31 +771,31 @@
         <v>21</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="L4" s="6">
         <v>-1556.85</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N4" s="6">
         <v>-1556.85</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="7">
         <v>1500002236</v>
@@ -806,10 +806,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="5">
         <v>45518</v>
@@ -821,34 +821,34 @@
         <v>20</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="L5" s="6">
         <v>-1275.31</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5" s="6">
         <v>-1275.31</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7">
         <v>1500002580</v>
@@ -859,10 +859,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5">
         <v>45510</v>
@@ -874,34 +874,34 @@
         <v>20</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="L6" s="6">
         <v>-109</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6" s="6">
         <v>-109</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="4">
         <v>1500002580</v>
@@ -910,5 +910,6 @@
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{7CDAAEFC-7726-43A6-BF0C-B7B75C311AC6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/vendor_payment_reference_test.xlsx
+++ b/vendor_payment_reference_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cogentholdings-my.sharepoint.com/personal/john_tan_sh-cogent_com_sg/Documents/Documents/Ivy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{F6840732-1724-4AF0-9FB3-462C17F71348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B22B0CC8-4302-457C-A4BF-731A4D738AF3}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{F6840732-1724-4AF0-9FB3-462C17F71348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABEBD373-3AE3-4723-9FDA-5C8DA71CE850}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DB2F7A36-12EF-4749-AC20-E36A0554DF53}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
   <si>
     <t>G/L Account</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>CR416232</t>
+  </si>
+  <si>
+    <t>EXI00448268</t>
   </si>
 </sst>
 </file>
@@ -880,7 +883,7 @@
         <v>34</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>22</v>

--- a/vendor_payment_reference_test.xlsx
+++ b/vendor_payment_reference_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cogentholdings-my.sharepoint.com/personal/john_tan_sh-cogent_com_sg/Documents/Documents/Ivy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{F6840732-1724-4AF0-9FB3-462C17F71348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABEBD373-3AE3-4723-9FDA-5C8DA71CE850}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{F6840732-1724-4AF0-9FB3-462C17F71348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5BE8504-2263-4E18-B7D1-F7D83BA7BE26}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DB2F7A36-12EF-4749-AC20-E36A0554DF53}"/>
   </bookViews>
@@ -146,10 +146,10 @@
     <t>EXI00442380</t>
   </si>
   <si>
-    <t>CR416232</t>
-  </si>
-  <si>
     <t>EXI00448268</t>
+  </si>
+  <si>
+    <t>CR414626</t>
   </si>
 </sst>
 </file>
@@ -668,10 +668,10 @@
         <v>21</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>22</v>
@@ -883,7 +883,7 @@
         <v>34</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>22</v>

--- a/vendor_payment_reference_test.xlsx
+++ b/vendor_payment_reference_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cogentholdings-my.sharepoint.com/personal/john_tan_sh-cogent_com_sg/Documents/Documents/Ivy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{F6840732-1724-4AF0-9FB3-462C17F71348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5BE8504-2263-4E18-B7D1-F7D83BA7BE26}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{F6840732-1724-4AF0-9FB3-462C17F71348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56D1AA0A-105F-45DF-888D-6C200199F1E8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DB2F7A36-12EF-4749-AC20-E36A0554DF53}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
   <si>
     <t>G/L Account</t>
   </si>
@@ -137,19 +137,16 @@
     <t>5100004337</t>
   </si>
   <si>
-    <t>EXI00442156</t>
-  </si>
-  <si>
     <t>5100004257</t>
   </si>
   <si>
-    <t>EXI00442380</t>
-  </si>
-  <si>
-    <t>EXI00448268</t>
-  </si>
-  <si>
     <t>CR414626</t>
+  </si>
+  <si>
+    <t>EXI00446571</t>
+  </si>
+  <si>
+    <t>EXI00447099</t>
   </si>
 </sst>
 </file>
@@ -586,6 +583,7 @@
   <cols>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="15" max="15" width="6.5703125" customWidth="1"/>
@@ -668,10 +666,10 @@
         <v>21</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>22</v>
@@ -827,10 +825,10 @@
         <v>22</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>22</v>
@@ -865,7 +863,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="5">
         <v>45510</v>
@@ -880,7 +878,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>35</v>
